--- a/public/assets/template/employee_template.xlsx
+++ b/public/assets/template/employee_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hris_app_shield\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3D6493-0C21-493B-A8EB-F3DB13D96BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EC3587-B5B2-428D-8888-BFB3AB191079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Resign Date</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>No HP</t>
   </si>
 </sst>
 </file>
@@ -146,12 +152,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBF119AE-B9BA-45FA-B558-F911B8936FB3}" name="Table1" displayName="Table1" ref="A1:N8" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:N8" xr:uid="{FBF119AE-B9BA-45FA-B558-F911B8936FB3}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBF119AE-B9BA-45FA-B558-F911B8936FB3}" name="Table1" displayName="Table1" ref="A1:P8" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:P8" xr:uid="{FBF119AE-B9BA-45FA-B558-F911B8936FB3}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{B8B20153-927E-4880-8B99-3A007791DC0B}" name="Emp ID"/>
     <tableColumn id="2" xr3:uid="{6A8A6372-EBCE-47F0-8929-2F8E738F0084}" name="Name"/>
     <tableColumn id="3" xr3:uid="{38E549E1-5A31-4803-9A64-834CDFC48373}" name="Gender"/>
+    <tableColumn id="18" xr3:uid="{BFCAA876-5E58-45AF-8124-5F439EAF8377}" name="Email"/>
+    <tableColumn id="17" xr3:uid="{29A7150A-4946-4496-8113-D9050CB60A8A}" name="No HP"/>
     <tableColumn id="4" xr3:uid="{5F1F7FA8-AF3E-4883-A2AB-4ABA0B4C2C26}" name="Join Date" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{3BB3EE8D-47E5-48C9-9F54-A0A75AB67F52}" name="Type"/>
     <tableColumn id="6" xr3:uid="{289DF3E9-4291-489D-A95C-9D1A2C96FAA3}" name="Organization"/>
@@ -465,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -487,7 +495,7 @@
     <col min="14" max="14" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -497,39 +505,87 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="D2"/>
+      <c r="F2" s="2"/>
+      <c r="N2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="D3"/>
+      <c r="F3" s="2"/>
+      <c r="N3"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="D4"/>
+      <c r="F4" s="2"/>
+      <c r="N4"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="D5"/>
+      <c r="F5" s="2"/>
+      <c r="N5"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="D6"/>
+      <c r="F6" s="2"/>
+      <c r="N6"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="D7"/>
+      <c r="F7" s="2"/>
+      <c r="N7"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="D8"/>
+      <c r="F8" s="2"/>
+      <c r="N8"/>
+      <c r="P8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
